--- a/biology/Histoire de la zoologie et de la botanique/Louis-Alexandre_Dambourney/Louis-Alexandre_Dambourney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis-Alexandre_Dambourney/Louis-Alexandre_Dambourney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Alexandre Dambourney, né le 10 mai 1722 à Rouen et mort le 2 juin 1795 à Oissel, est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'une famille exerçant le haut commerce à Rouen, Louis-Alexandre Dambourney a d'abord commencé par cultiver les arts d'agréments pour devenir bon peintre, excellent musicien et excellent littérateur. Ayant également acquis des connaissances très étendues dans les sciences, il compléta son instruction dans ce domaine en visitant les villes les plus importantes de France. Admis, lors de son retour à l'Académie de Rouen, il y présente un Mémoire sur la culture de la garance qu'il venait d'acclimater en Normandie, résultat inappréciable pour les teinturiers qui trouvaient ainsi chez eux une garance supérieure à celle de Smyrne et de Hollande.
 Sa nomination au poste d'intendant du Jardin botanique de Rouen lui permet d'observer l'existence, dans diverses plantes, de principes colorants pouvant être substitués avec avantage à ceux des produits exotiques. Plusieurs de ses expériences eurent un plein succès et, en 1772, il était en mesure de montrer des velours de coton sur lesquels il était parvenu à fixer un rouge magnifique d'une solidité à toute épreuve. Le gouvernement le récompensa en lui accordant une pension de 1 000 livres et en faisant imprimer à ses frais le recueil d'expériences et de procédés sur les teintures solides communiqués aux cotons et aux lainages par les substances végétales indigènes.
